--- a/biology/Zoologie/Beryciformes/Beryciformes.xlsx
+++ b/biology/Zoologie/Beryciformes/Beryciformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Béryciformes forment un ordre de poissons à nageoires rayonnées.
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de l'ordre des Beryciformes sont caractérisées par la morphologie du crâne et la présence de canaux à mucus sous l'épiderme de la tête. Les nageoires ventrales comprennent un rayon rigide et jusqu'à 13 rayons souples. De plus, sur le corps sont réparties de nombreuses épines[1].
-Le nom de cet ordre vient du grec « beryx », ou « berys »[2], qui désignait un poisson dont l’identification précise n’a pas pu être faite[3]. Ces poissons sont caractérisés par leur morphologie crânienne et par la présence de canaux à mucus sous la peau de la tête, ainsi que par le nombre de rayons de la nageoire caudale[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de l'ordre des Beryciformes sont caractérisées par la morphologie du crâne et la présence de canaux à mucus sous l'épiderme de la tête. Les nageoires ventrales comprennent un rayon rigide et jusqu'à 13 rayons souples. De plus, sur le corps sont réparties de nombreuses épines.
+Le nom de cet ordre vient du grec « beryx », ou « berys », qui désignait un poisson dont l’identification précise n’a pas pu être faite. Ces poissons sont caractérisés par leur morphologie crânienne et par la présence de canaux à mucus sous la peau de la tête, ainsi que par le nombre de rayons de la nageoire caudale.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des sous-ordres et familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Anoplogaster cornuta, un Anoplogastridae
